--- a/Data/EC/NIT-9002458184.xlsx
+++ b/Data/EC/NIT-9002458184.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C92EED9A-15F3-43AA-8DA7-7AA88A537C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF7816B6-4DCB-4B73-B30E-C2DC30AA6B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3741F320-F390-47B8-B4E2-04BE78ECE399}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{59FC27CA-3DA4-419A-A194-494EB5B04153}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,190 +71,190 @@
     <t>JAVIER PEREZ VALDEZ</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
     <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -353,9 +353,159 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -373,156 +523,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -568,23 +568,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -612,10 +612,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -668,7 +668,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D630FA88-C2FA-1FE2-D186-04B428B75014}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B815BA9-4491-13E8-3CCD-835DA03E54CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1019,7 +1019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76781F8C-5E5A-49B5-B974-5A3F630E4B8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0AE6C2-4C64-4F6B-8042-2ABA93237367}">
   <dimension ref="B2:J83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
